--- a/documents/Wed_Info.xlsx
+++ b/documents/Wed_Info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa.avalos\Documents\MIS\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\alexwarren1989.github.io\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7995" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RSVP" sheetId="2" r:id="rId1"/>

--- a/documents/Wed_Info.xlsx
+++ b/documents/Wed_Info.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\alexwarren1989.github.io\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa.avalos\Documents\MIS\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7995" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RSVP" sheetId="2" r:id="rId1"/>
-    <sheet name="Info" sheetId="3" r:id="rId2"/>
-    <sheet name="Schedule" sheetId="4" r:id="rId3"/>
-    <sheet name="Honeymoon Fund" sheetId="5" r:id="rId4"/>
-    <sheet name="Travel and Accomodations" sheetId="6" r:id="rId5"/>
-    <sheet name="Meet the Bridal PartyRox" sheetId="1" r:id="rId6"/>
-    <sheet name="Things to do" sheetId="7" r:id="rId7"/>
-    <sheet name="Contact Us" sheetId="8" r:id="rId8"/>
+    <sheet name="Reception Music Request" sheetId="3" r:id="rId2"/>
+    <sheet name="Honeymoon Fund" sheetId="5" r:id="rId3"/>
+    <sheet name="Travel and Accomodations" sheetId="6" r:id="rId4"/>
+    <sheet name="Meet the Bridal Party" sheetId="1" r:id="rId5"/>
+    <sheet name="Things to do" sheetId="7" r:id="rId6"/>
+    <sheet name="Contact Us" sheetId="8" r:id="rId7"/>
+    <sheet name="Gifts" sheetId="9" r:id="rId8"/>
+    <sheet name="Attire" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>The Bridesmaids:</t>
   </si>
   <si>
@@ -145,14 +143,94 @@
   </si>
   <si>
     <t>Nephew and God-son of the Bride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address: </t>
+  </si>
+  <si>
+    <t>18980 Upper Belmont Pl, Leesburg, VA 20176</t>
+  </si>
+  <si>
+    <t>Nearest Airports:</t>
+  </si>
+  <si>
+    <t>Dulles International Airport (IAD)</t>
+  </si>
+  <si>
+    <t>Distance:</t>
+  </si>
+  <si>
+    <t>Washington Reagan Washington National Airport (DCA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance: </t>
+  </si>
+  <si>
+    <t>Baltimore-Washington International Airport (BWI)</t>
+  </si>
+  <si>
+    <t>Hotels:</t>
+  </si>
+  <si>
+    <t>~50 min away</t>
+  </si>
+  <si>
+    <t>~ 30 min away</t>
+  </si>
+  <si>
+    <t>~ 2 hrs away</t>
+  </si>
+  <si>
+    <t>The National Conference Center</t>
+  </si>
+  <si>
+    <t>Comfort Suites</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>80 Prosperity Ave SE, Leesburg, VA 20175</t>
+  </si>
+  <si>
+    <t>Transportation:</t>
+  </si>
+  <si>
+    <t>More information coming this way!</t>
+  </si>
+  <si>
+    <t>Depending on the year, November can be either cold (30 degF) or warm (70 degF).  If it ends up being a cold Nov, try to bring a well padded jacket or coat, even more so if you are planning on touring the Washington DC monuments.  If it ends up being warmer, don't forget sunscreen (side joke: hopefully, we are making you proud Kirsty :) ).  Overall, we advice that you bring clothes for either occasions!  There is low likelihood of precipitation, but it doesn't hurt to bring an umbrella.</t>
+  </si>
+  <si>
+    <t>Ceremony/Reception attire: Semi-formal (Feel comfortable!)</t>
+  </si>
+  <si>
+    <t>No gift is necessary, your presence and support during our special day is what we are mostly thankful for!</t>
+  </si>
+  <si>
+    <t>We have decided not to kick anyone out if you decide to bring a gift.</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>Okay, but if you must insist, we have signed up in the following registries.  For anyone who does not like registries, we will also have a Honeymoon fund box available.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,8 +258,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -525,10 +609,104 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -536,36 +714,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,29 +729,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,74 +759,74 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,63 +834,69 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -758,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -768,4 +928,67 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/Wed_Info.xlsx
+++ b/documents/Wed_Info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosa.avalos\Documents\MIS\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexw\Documents\GitHub\alexwarren1989.github.io\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7995" firstSheet="3" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RSVP" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Gifts" sheetId="9" r:id="rId8"/>
     <sheet name="Attire" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -619,7 +619,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/Wed_Info.xlsx
+++ b/documents/Wed_Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RSVP" sheetId="2" r:id="rId1"/>
@@ -580,9 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -618,9 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -718,9 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -908,9 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -934,9 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -969,9 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
